--- a/raw-data/FentanylvsSaline_SelfAdministration_RNAextraction.xlsx
+++ b/raw-data/FentanylvsSaline_SelfAdministration_RNAextraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Neural_Plasticity/Ege/Fentanyl vs Saline Self Administration Bulk RNAseq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AB97C9-8007-7D46-86C7-38AA601E1E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E5919F-F3C0-2E4C-B8C2-EF8EB18BA386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{DB3991EF-617A-7F4B-B65F-F21D6C73D099}"/>
+    <workbookView xWindow="1220" yWindow="760" windowWidth="29240" windowHeight="17440" activeTab="1" xr2:uid="{DB3991EF-617A-7F4B-B65F-F21D6C73D099}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment Information" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="91">
   <si>
     <t>Sample No.</t>
   </si>
@@ -290,6 +290,27 @@
   </si>
   <si>
     <t>blue ones are the replacements for the samples that failed QC, but the sample no. was left same</t>
+  </si>
+  <si>
+    <t>NanoDrop (ng/uL) or BioA*</t>
+  </si>
+  <si>
+    <t>RIN (ones we measured)</t>
+  </si>
+  <si>
+    <t>Psomagen RIN</t>
+  </si>
+  <si>
+    <t>Psomagen Total RNA amount (ug)</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Total No. of Fentanyl Sessions</t>
+  </si>
+  <si>
+    <t>6 hr. Fentanyl Sessions</t>
   </si>
 </sst>
 </file>
@@ -374,18 +395,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -696,11 +717,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -758,20 +892,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,7 +1310,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2585,26 +2798,34 @@
     <sortCondition ref="A2:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="41" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC218D00-7BE9-1B4A-A28B-9601D04B78A2}">
-  <dimension ref="A1:J35"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="7" width="24.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="31" style="73" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
@@ -2614,37 +2835,74 @@
       <c r="C1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="K1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="L1" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="88">
+        <v>16</v>
+      </c>
+      <c r="E2" s="66">
+        <f>D2+6</f>
+        <v>22</v>
+      </c>
+      <c r="F2" s="89">
+        <v>81.5</v>
+      </c>
+      <c r="G2" s="66">
+        <v>7.9</v>
+      </c>
+      <c r="H2" s="66">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I2" s="66">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="K2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -2654,17 +2912,36 @@
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="77">
+        <v>16</v>
+      </c>
+      <c r="E3" s="67">
+        <f t="shared" ref="E3:E34" si="0">D3+6</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="67">
+        <v>8.1</v>
+      </c>
+      <c r="H3" s="67">
+        <v>8</v>
+      </c>
+      <c r="I3" s="67">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -2674,17 +2951,36 @@
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="77">
+        <v>16</v>
+      </c>
+      <c r="E4" s="67">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F4" s="83">
+        <v>23.5</v>
+      </c>
+      <c r="G4" s="67">
+        <v>7.5</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="67">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -2694,17 +2990,36 @@
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="77">
+        <v>18</v>
+      </c>
+      <c r="E5" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F5" s="83">
+        <v>20.3</v>
+      </c>
+      <c r="G5" s="67">
+        <v>8.4</v>
+      </c>
+      <c r="H5" s="67">
+        <v>7.6</v>
+      </c>
+      <c r="I5" s="67">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -2714,17 +3029,36 @@
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="77">
+        <v>18</v>
+      </c>
+      <c r="E6" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F6" s="83">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G6" s="67">
+        <v>8.4</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="67">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -2734,17 +3068,36 @@
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="77">
+        <v>18</v>
+      </c>
+      <c r="E7" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="83">
+        <v>17.8</v>
+      </c>
+      <c r="G7" s="67">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H7" s="67">
+        <v>7.7</v>
+      </c>
+      <c r="I7" s="67">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -2754,17 +3107,36 @@
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="77">
+        <v>18</v>
+      </c>
+      <c r="E8" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F8" s="83">
+        <v>28.5</v>
+      </c>
+      <c r="G8" s="67">
+        <v>8.4</v>
+      </c>
+      <c r="H8" s="67">
+        <v>7.3</v>
+      </c>
+      <c r="I8" s="67">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -2774,17 +3146,36 @@
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="77">
+        <v>18</v>
+      </c>
+      <c r="E9" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="83">
+        <v>46.4</v>
+      </c>
+      <c r="G9" s="67">
+        <v>8.1</v>
+      </c>
+      <c r="H9" s="67">
+        <v>7.4</v>
+      </c>
+      <c r="I9" s="67">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -2794,46 +3185,82 @@
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="78">
+        <v>16</v>
+      </c>
+      <c r="E10" s="68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F10" s="84">
+        <v>50.9</v>
+      </c>
+      <c r="G10" s="68">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H10" s="68">
+        <v>7.5</v>
+      </c>
+      <c r="I10" s="68">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="69" t="s">
+      <c r="K10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="57" t="s">
+      <c r="C11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="79">
+        <v>16</v>
+      </c>
+      <c r="E11" s="69">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F11" s="91">
+        <v>251.7</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69">
+        <v>8.4</v>
+      </c>
+      <c r="I11" s="69">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="J11" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
+      <c r="K11" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -2843,17 +3270,36 @@
       <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="78">
+        <v>16</v>
+      </c>
+      <c r="E12" s="68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F12" s="84">
+        <v>46.2</v>
+      </c>
+      <c r="G12" s="68">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H12" s="68">
+        <v>7.2</v>
+      </c>
+      <c r="I12" s="68">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -2863,17 +3309,36 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="78">
+        <v>16</v>
+      </c>
+      <c r="E13" s="68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F13" s="84">
+        <v>41.9</v>
+      </c>
+      <c r="G13" s="68">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H13" s="68">
+        <v>8</v>
+      </c>
+      <c r="I13" s="68">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -2883,40 +3348,76 @@
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="78">
+        <v>18</v>
+      </c>
+      <c r="E14" s="68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F14" s="84">
+        <v>26.6</v>
+      </c>
+      <c r="G14" s="68">
+        <v>7.9</v>
+      </c>
+      <c r="H14" s="68">
+        <v>7.4</v>
+      </c>
+      <c r="I14" s="68">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="58" t="s">
+      <c r="C15" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="79">
+        <v>18</v>
+      </c>
+      <c r="E15" s="69">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="91">
+        <v>335.8</v>
+      </c>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69">
+        <v>8.6</v>
+      </c>
+      <c r="I15" s="69">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="J15" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
+      <c r="K15" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -2926,40 +3427,76 @@
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="78">
+        <v>18</v>
+      </c>
+      <c r="E16" s="68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F16" s="84">
+        <v>32.9</v>
+      </c>
+      <c r="G16" s="68">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H16" s="68">
+        <v>7.4</v>
+      </c>
+      <c r="I16" s="68">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="58" t="s">
+      <c r="C17" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="80">
+        <v>18</v>
+      </c>
+      <c r="E17" s="75">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F17" s="90">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75">
+        <v>7.9</v>
+      </c>
+      <c r="I17" s="75">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J17" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K17" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2969,17 +3506,36 @@
       <c r="C18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="76">
+        <v>16</v>
+      </c>
+      <c r="E18" s="70">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F18" s="82">
+        <v>1165.5999999999999</v>
+      </c>
+      <c r="G18" s="70">
+        <v>7.7</v>
+      </c>
+      <c r="H18" s="70">
+        <v>8.4</v>
+      </c>
+      <c r="I18" s="70">
+        <v>0.32</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="K18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L18" s="52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -2989,17 +3545,36 @@
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="77">
+        <v>16</v>
+      </c>
+      <c r="E19" s="67">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F19" s="83">
+        <v>727.7</v>
+      </c>
+      <c r="G19" s="67">
+        <v>8.1</v>
+      </c>
+      <c r="H19" s="67">
+        <v>7.5</v>
+      </c>
+      <c r="I19" s="67">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L19" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -3009,17 +3584,36 @@
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="77">
+        <v>16</v>
+      </c>
+      <c r="E20" s="67">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F20" s="83">
+        <v>1125.2</v>
+      </c>
+      <c r="G20" s="67">
+        <v>7.5</v>
+      </c>
+      <c r="H20" s="67">
         <v>8</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="I20" s="67">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L20" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -3029,17 +3623,36 @@
       <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="77">
+        <v>18</v>
+      </c>
+      <c r="E21" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F21" s="83">
+        <v>626.5</v>
+      </c>
+      <c r="G21" s="67">
+        <v>7.7</v>
+      </c>
+      <c r="H21" s="67">
+        <v>8.1</v>
+      </c>
+      <c r="I21" s="67">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L21" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -3049,17 +3662,36 @@
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="77">
+        <v>18</v>
+      </c>
+      <c r="E22" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F22" s="83">
+        <v>520.1</v>
+      </c>
+      <c r="G22" s="67">
+        <v>7.9</v>
+      </c>
+      <c r="H22" s="67">
+        <v>7.7</v>
+      </c>
+      <c r="I22" s="67">
+        <v>0.46</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L22" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -3069,17 +3701,36 @@
       <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="77">
+        <v>18</v>
+      </c>
+      <c r="E23" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F23" s="83">
+        <v>835.6</v>
+      </c>
+      <c r="G23" s="67">
+        <v>7.6</v>
+      </c>
+      <c r="H23" s="67">
+        <v>7.9</v>
+      </c>
+      <c r="I23" s="67">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L23" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -3089,17 +3740,34 @@
       <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="77">
+        <v>18</v>
+      </c>
+      <c r="E24" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F24" s="83">
+        <v>250</v>
+      </c>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67">
+        <v>8.1</v>
+      </c>
+      <c r="I24" s="67">
+        <v>0.433</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L24" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -3109,17 +3777,34 @@
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="77">
+        <v>18</v>
+      </c>
+      <c r="E25" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F25" s="83">
+        <v>467.4</v>
+      </c>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67">
+        <v>8.1</v>
+      </c>
+      <c r="I25" s="67">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L25" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -3129,17 +3814,34 @@
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="78">
+        <v>16</v>
+      </c>
+      <c r="E26" s="68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F26" s="84">
+        <v>897.9</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I26" s="68">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>26</v>
       </c>
@@ -3149,17 +3851,34 @@
       <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="78">
+        <v>16</v>
+      </c>
+      <c r="E27" s="68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F27" s="84">
+        <v>882.3</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68">
+        <v>8.1</v>
+      </c>
+      <c r="I27" s="68">
+        <v>0.495</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -3169,17 +3888,34 @@
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="78">
+        <v>16</v>
+      </c>
+      <c r="E28" s="68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F28" s="84">
+        <v>491.5</v>
+      </c>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68">
+        <v>7.8</v>
+      </c>
+      <c r="I28" s="68">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -3189,40 +3925,74 @@
       <c r="C29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="78">
+        <v>16</v>
+      </c>
+      <c r="E29" s="68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F29" s="84">
+        <v>554.5</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68">
+        <v>7.9</v>
+      </c>
+      <c r="I29" s="68">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>29</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="63" t="s">
+      <c r="C30" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="93">
+        <v>18</v>
+      </c>
+      <c r="E30" s="69">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F30" s="91">
+        <v>522.1</v>
+      </c>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I30" s="94">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J30" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30">
+      <c r="K30" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -3232,17 +4002,34 @@
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="78">
+        <v>18</v>
+      </c>
+      <c r="E31" s="68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F31" s="84">
+        <v>602.6</v>
+      </c>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68">
+        <v>7.8</v>
+      </c>
+      <c r="I31" s="68">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>31</v>
       </c>
@@ -3252,67 +4039,118 @@
       <c r="C32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="78">
+        <v>18</v>
+      </c>
+      <c r="E32" s="68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F32" s="84">
+        <v>690.9</v>
+      </c>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68">
+        <v>7.4</v>
+      </c>
+      <c r="I32" s="68">
+        <v>0.314</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <v>32</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="25" t="s">
+      <c r="C33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="78">
+        <v>18</v>
+      </c>
+      <c r="E33" s="68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F33" s="84">
+        <v>384.3</v>
+      </c>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68">
+        <v>7.9</v>
+      </c>
+      <c r="I33" s="68">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
+      <c r="K33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="66" t="s">
+      <c r="C34" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="81">
+        <v>18</v>
+      </c>
+      <c r="E34" s="72">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F34" s="85">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="G34" s="63"/>
+      <c r="H34" s="72">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I34" s="72">
+        <v>1.08</v>
+      </c>
+      <c r="J34" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34">
+      <c r="K34" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34">
         <v>36</v>
       </c>
-      <c r="H34" s="70"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F35" s="68" t="s">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L35" s="65" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
